--- a/wild_reports/tr0502t018_wild_report.xlsx
+++ b/wild_reports/tr0502t018_wild_report.xlsx
@@ -526,7 +526,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -544,7 +544,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -557,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
@@ -575,7 +579,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -593,7 +597,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -606,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
@@ -624,7 +632,7 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -642,7 +650,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -655,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
@@ -673,7 +685,7 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -691,7 +703,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -704,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
@@ -722,7 +738,7 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -740,7 +756,11 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -753,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
@@ -771,7 +791,7 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -789,7 +809,11 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -802,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
@@ -820,7 +844,7 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -838,7 +862,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -851,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
@@ -869,7 +897,7 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -887,7 +915,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -900,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
@@ -918,7 +950,7 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -936,7 +968,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -949,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
@@ -967,7 +1003,7 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -985,7 +1021,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -998,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
@@ -1016,7 +1056,7 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -1034,7 +1074,11 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1047,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
@@ -1065,7 +1109,7 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
@@ -1083,7 +1127,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1096,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
@@ -1114,7 +1162,7 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -1132,7 +1180,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1145,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
@@ -1163,7 +1215,7 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -1181,7 +1233,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1194,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
@@ -1212,7 +1268,7 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -1230,7 +1286,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1243,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
@@ -1261,7 +1321,7 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -1279,7 +1339,11 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1292,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
@@ -1310,7 +1374,7 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -1328,7 +1392,11 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1341,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
@@ -1359,7 +1427,7 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -1377,7 +1445,11 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1390,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
@@ -1408,7 +1480,7 @@
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -1426,7 +1498,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1439,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
@@ -1457,7 +1533,7 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -1475,7 +1551,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1488,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
@@ -1506,7 +1586,7 @@
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -1524,7 +1604,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1537,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
@@ -1555,7 +1639,7 @@
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -1573,7 +1657,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1586,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
@@ -1604,7 +1692,7 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
@@ -1622,7 +1710,11 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1635,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
@@ -1653,7 +1745,7 @@
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -1671,7 +1763,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1684,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
@@ -1702,7 +1798,7 @@
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
@@ -1720,7 +1816,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1733,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
@@ -1751,7 +1851,7 @@
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -1769,7 +1869,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1782,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
@@ -1800,7 +1904,7 @@
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
@@ -1818,7 +1922,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1831,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
@@ -1849,7 +1957,7 @@
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -1867,7 +1975,11 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F29" s="2" t="inlineStr"/>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1880,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
@@ -1898,7 +2010,7 @@
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
@@ -1916,7 +2028,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1929,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
@@ -1947,7 +2063,7 @@
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
@@ -1965,7 +2081,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1978,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
@@ -1996,7 +2116,7 @@
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -2014,7 +2134,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -2027,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
@@ -2045,7 +2169,7 @@
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
@@ -2063,7 +2187,11 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -2076,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
@@ -2094,7 +2222,7 @@
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
@@ -2112,7 +2240,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -2125,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
@@ -2143,7 +2275,7 @@
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
@@ -2161,7 +2293,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F35" s="2" t="inlineStr"/>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -2174,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
@@ -2192,7 +2328,7 @@
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
@@ -2210,7 +2346,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr"/>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -2223,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
@@ -2241,7 +2381,7 @@
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -2259,7 +2399,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F37" s="2" t="inlineStr"/>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -2272,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
@@ -2290,7 +2434,7 @@
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
@@ -2308,7 +2452,11 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr"/>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -2321,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
@@ -2339,7 +2487,7 @@
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
@@ -2357,7 +2505,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -2370,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
@@ -2388,7 +2540,7 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
@@ -2406,7 +2558,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F40" s="2" t="inlineStr"/>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -2419,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
@@ -2437,7 +2593,7 @@
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
@@ -2455,7 +2611,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F41" s="2" t="inlineStr"/>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -2468,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
@@ -2486,7 +2646,7 @@
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
@@ -2504,7 +2664,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F42" s="2" t="inlineStr"/>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -2517,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
@@ -2535,7 +2699,7 @@
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
@@ -2553,7 +2717,11 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F43" s="2" t="inlineStr"/>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -2566,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
@@ -2584,7 +2752,7 @@
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
@@ -2602,7 +2770,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F44" s="2" t="inlineStr"/>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -2615,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
@@ -2633,7 +2805,7 @@
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
@@ -2651,7 +2823,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F45" s="2" t="inlineStr"/>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -2664,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
@@ -2682,7 +2858,7 @@
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
@@ -2700,7 +2876,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr"/>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -2713,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
@@ -2731,7 +2911,7 @@
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -2749,7 +2929,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F47" s="2" t="inlineStr"/>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -2762,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
@@ -2780,7 +2964,7 @@
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
@@ -2798,7 +2982,11 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr"/>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -2811,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
@@ -2849,7 +3037,7 @@
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>SQUIRREL</t>
+          <t>Squirrel</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
@@ -2902,7 +3090,7 @@
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>WEASEL</t>
+          <t>Weasel</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
@@ -2935,7 +3123,7 @@
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
@@ -2953,7 +3141,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr"/>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -2966,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="2" t="inlineStr">
         <is>
@@ -2984,7 +3176,7 @@
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
@@ -3002,7 +3194,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr"/>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G52" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -3015,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
@@ -3033,7 +3229,7 @@
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
@@ -3051,7 +3247,11 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F53" s="2" t="inlineStr"/>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G53" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -3064,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="2" t="inlineStr">
         <is>
@@ -3082,7 +3282,7 @@
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
@@ -3100,7 +3300,11 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F54" s="2" t="inlineStr"/>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G54" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -3113,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="2" t="inlineStr">
         <is>
@@ -3131,7 +3335,7 @@
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
@@ -3149,7 +3353,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F55" s="2" t="inlineStr"/>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -3162,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="2" t="inlineStr">
         <is>
@@ -3180,7 +3388,7 @@
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
@@ -3198,7 +3406,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F56" s="2" t="inlineStr"/>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -3211,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="2" t="inlineStr">
         <is>
@@ -3229,7 +3441,7 @@
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
@@ -3247,7 +3459,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F57" s="2" t="inlineStr"/>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G57" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -3260,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="2" t="inlineStr">
         <is>
@@ -3278,7 +3494,7 @@
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
@@ -3296,7 +3512,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F58" s="2" t="inlineStr"/>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -3309,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="2" t="inlineStr">
         <is>
@@ -3327,7 +3547,7 @@
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
@@ -3345,7 +3565,11 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F59" s="2" t="inlineStr"/>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -3358,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" s="2" t="inlineStr">
         <is>
@@ -3376,7 +3600,7 @@
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
@@ -3394,7 +3618,11 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F60" s="2" t="inlineStr"/>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -3407,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" s="2" t="inlineStr">
         <is>
@@ -3425,7 +3653,7 @@
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
@@ -3443,7 +3671,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F61" s="2" t="inlineStr"/>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -3456,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" s="2" t="inlineStr">
         <is>
@@ -3474,7 +3706,7 @@
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
@@ -3492,7 +3724,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F62" s="2" t="inlineStr"/>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -3505,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" s="2" t="inlineStr">
         <is>
@@ -3523,7 +3759,7 @@
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
@@ -3541,7 +3777,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F63" s="2" t="inlineStr"/>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -3554,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" s="2" t="inlineStr">
         <is>
@@ -3572,7 +3812,7 @@
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
@@ -3590,7 +3830,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F64" s="2" t="inlineStr"/>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -3603,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="2" t="inlineStr">
         <is>
@@ -3621,7 +3865,7 @@
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
@@ -3639,7 +3883,11 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F65" s="2" t="inlineStr"/>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -3652,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="2" t="inlineStr">
         <is>
@@ -3670,7 +3918,7 @@
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
@@ -3688,7 +3936,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F66" s="2" t="inlineStr"/>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G66" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -3701,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" s="2" t="inlineStr">
         <is>
@@ -3719,7 +3971,7 @@
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
@@ -3737,7 +3989,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F67" s="2" t="inlineStr"/>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G67" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -3750,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" s="2" t="inlineStr">
         <is>
@@ -3768,7 +4024,7 @@
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
@@ -3786,7 +4042,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F68" s="2" t="inlineStr"/>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -3799,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" s="2" t="inlineStr">
         <is>
@@ -3817,7 +4077,7 @@
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
@@ -3835,7 +4095,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F69" s="2" t="inlineStr"/>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -3848,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" s="2" t="inlineStr">
         <is>
@@ -3866,7 +4130,7 @@
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
@@ -3884,7 +4148,11 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F70" s="2" t="inlineStr"/>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -3897,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" s="2" t="inlineStr">
         <is>
@@ -3935,7 +4203,7 @@
       </c>
       <c r="F71" s="2" t="inlineStr">
         <is>
-          <t>WEASEL</t>
+          <t>Weasel</t>
         </is>
       </c>
       <c r="G71" s="2" t="inlineStr">
@@ -3988,7 +4256,7 @@
       </c>
       <c r="F72" s="2" t="inlineStr">
         <is>
-          <t>SQUIRREL</t>
+          <t>Squirrel</t>
         </is>
       </c>
       <c r="G72" s="2" t="inlineStr">
@@ -4041,7 +4309,7 @@
       </c>
       <c r="F73" s="2" t="inlineStr">
         <is>
-          <t>SQUIRREL</t>
+          <t>Squirrel</t>
         </is>
       </c>
       <c r="G73" s="2" t="inlineStr">
@@ -4094,7 +4362,7 @@
       </c>
       <c r="F74" s="2" t="inlineStr">
         <is>
-          <t>SQUIRREL</t>
+          <t>Squirrel</t>
         </is>
       </c>
       <c r="G74" s="2" t="inlineStr">
@@ -4127,7 +4395,7 @@
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
@@ -4145,7 +4413,11 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F75" s="2" t="inlineStr"/>
+      <c r="F75" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G75" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -4158,7 +4430,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" s="2" t="inlineStr">
         <is>
@@ -4196,7 +4468,7 @@
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>SQUIRREL</t>
+          <t>Squirrel</t>
         </is>
       </c>
       <c r="G76" s="2" t="inlineStr">
@@ -4229,7 +4501,7 @@
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
@@ -4247,7 +4519,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F77" s="2" t="inlineStr"/>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -4260,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77" s="2" t="inlineStr">
         <is>
@@ -4278,7 +4554,7 @@
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
@@ -4296,7 +4572,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr"/>
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G78" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -4309,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" s="2" t="inlineStr">
         <is>
@@ -4327,7 +4607,7 @@
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
@@ -4345,7 +4625,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F79" s="2" t="inlineStr"/>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G79" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -4358,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" s="2" t="inlineStr">
         <is>

--- a/wild_reports/tr0502t018_wild_report.xlsx
+++ b/wild_reports/tr0502t018_wild_report.xlsx
@@ -526,7 +526,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -544,11 +544,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -561,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
@@ -579,7 +575,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -597,11 +593,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F3" s="2" t="inlineStr"/>
       <c r="G3" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -614,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
@@ -632,7 +624,7 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -650,11 +642,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F4" s="2" t="inlineStr"/>
       <c r="G4" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -667,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
@@ -685,7 +673,7 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -703,11 +691,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F5" s="2" t="inlineStr"/>
       <c r="G5" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -720,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
@@ -738,7 +722,7 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -756,11 +740,7 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F6" s="2" t="inlineStr"/>
       <c r="G6" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -773,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
@@ -791,7 +771,7 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -809,11 +789,7 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F7" s="2" t="inlineStr"/>
       <c r="G7" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -826,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
@@ -844,7 +820,7 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -862,11 +838,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -879,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
@@ -897,7 +869,7 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -915,11 +887,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F9" s="2" t="inlineStr"/>
       <c r="G9" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -932,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
@@ -950,7 +918,7 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -968,11 +936,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F10" s="2" t="inlineStr"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -985,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
@@ -1003,7 +967,7 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -1021,11 +985,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F11" s="2" t="inlineStr"/>
       <c r="G11" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1038,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
@@ -1056,7 +1016,7 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -1074,11 +1034,7 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F12" s="2" t="inlineStr"/>
       <c r="G12" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1091,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
@@ -1109,7 +1065,7 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
@@ -1127,11 +1083,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F13" s="2" t="inlineStr"/>
       <c r="G13" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1144,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
@@ -1162,7 +1114,7 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -1180,11 +1132,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F14" s="2" t="inlineStr"/>
       <c r="G14" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1197,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
@@ -1215,7 +1163,7 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -1233,11 +1181,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F15" s="2" t="inlineStr"/>
       <c r="G15" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1250,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
@@ -1268,7 +1212,7 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -1286,11 +1230,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F16" s="2" t="inlineStr"/>
       <c r="G16" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1303,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
@@ -1321,7 +1261,7 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -1339,11 +1279,7 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1356,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
@@ -1374,7 +1310,7 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -1392,11 +1328,7 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1409,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
@@ -1427,7 +1359,7 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -1445,11 +1377,7 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1462,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
@@ -1480,7 +1408,7 @@
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -1498,11 +1426,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1515,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
@@ -1533,7 +1457,7 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -1551,11 +1475,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1568,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
@@ -1586,7 +1506,7 @@
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -1604,11 +1524,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1621,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
@@ -1639,7 +1555,7 @@
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -1657,11 +1573,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1674,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
@@ -1692,7 +1604,7 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
@@ -1710,11 +1622,7 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1727,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
@@ -1745,7 +1653,7 @@
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -1763,11 +1671,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1780,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
@@ -1798,7 +1702,7 @@
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
@@ -1816,11 +1720,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1833,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
@@ -1851,7 +1751,7 @@
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -1869,11 +1769,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1886,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
@@ -1904,7 +1800,7 @@
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
@@ -1922,11 +1818,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1939,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
@@ -1957,7 +1849,7 @@
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -1975,11 +1867,7 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -1992,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
@@ -2010,7 +1898,7 @@
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
@@ -2028,11 +1916,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -2045,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
@@ -2063,7 +1947,7 @@
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
@@ -2081,11 +1965,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -2098,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
@@ -2116,7 +1996,7 @@
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -2134,11 +2014,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -2151,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
@@ -2169,7 +2045,7 @@
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
@@ -2187,11 +2063,7 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F33" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -2204,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
@@ -2222,7 +2094,7 @@
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
@@ -2240,11 +2112,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -2257,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
@@ -2275,7 +2143,7 @@
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
@@ -2293,11 +2161,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F35" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -2310,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
@@ -2328,7 +2192,7 @@
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
@@ -2346,11 +2210,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -2363,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
@@ -2381,7 +2241,7 @@
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -2399,11 +2259,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F37" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -2416,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
@@ -2434,7 +2290,7 @@
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
@@ -2452,11 +2308,7 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -2469,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
@@ -2487,7 +2339,7 @@
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
@@ -2505,11 +2357,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -2522,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
@@ -2540,7 +2388,7 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
@@ -2558,11 +2406,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -2575,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
@@ -2593,7 +2437,7 @@
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
@@ -2611,11 +2455,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -2628,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
@@ -2646,7 +2486,7 @@
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
@@ -2664,11 +2504,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -2681,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
@@ -2699,7 +2535,7 @@
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
@@ -2717,11 +2553,7 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -2734,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
@@ -2752,7 +2584,7 @@
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
@@ -2770,11 +2602,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -2787,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
@@ -2805,7 +2633,7 @@
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
@@ -2823,11 +2651,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F45" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -2840,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
@@ -2858,7 +2682,7 @@
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
@@ -2876,11 +2700,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -2893,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
@@ -2911,7 +2731,7 @@
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -2929,11 +2749,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F47" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -2946,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
@@ -2964,7 +2780,7 @@
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
@@ -2982,11 +2798,7 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -2999,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
@@ -3123,7 +2935,7 @@
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
@@ -3141,11 +2953,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -3158,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="2" t="inlineStr">
         <is>
@@ -3176,7 +2984,7 @@
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
@@ -3194,11 +3002,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -3211,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="2" t="inlineStr">
         <is>
@@ -3229,7 +3033,7 @@
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
@@ -3247,11 +3051,7 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F53" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -3264,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="2" t="inlineStr">
         <is>
@@ -3282,7 +3082,7 @@
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
@@ -3300,11 +3100,7 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -3317,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="2" t="inlineStr">
         <is>
@@ -3335,7 +3131,7 @@
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
@@ -3353,11 +3149,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -3370,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="2" t="inlineStr">
         <is>
@@ -3388,7 +3180,7 @@
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
@@ -3406,11 +3198,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F56" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -3423,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="2" t="inlineStr">
         <is>
@@ -3441,7 +3229,7 @@
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
@@ -3459,11 +3247,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F57" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -3476,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" s="2" t="inlineStr">
         <is>
@@ -3494,7 +3278,7 @@
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
@@ -3512,11 +3296,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F58" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -3529,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="2" t="inlineStr">
         <is>
@@ -3547,7 +3327,7 @@
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
@@ -3565,11 +3345,7 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F59" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -3582,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" s="2" t="inlineStr">
         <is>
@@ -3600,7 +3376,7 @@
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
@@ -3618,11 +3394,7 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F60" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -3635,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" s="2" t="inlineStr">
         <is>
@@ -3653,7 +3425,7 @@
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
@@ -3671,11 +3443,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F61" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -3688,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="2" t="inlineStr">
         <is>
@@ -3706,7 +3474,7 @@
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
@@ -3724,11 +3492,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F62" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -3741,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" s="2" t="inlineStr">
         <is>
@@ -3759,7 +3523,7 @@
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
@@ -3777,11 +3541,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -3794,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" s="2" t="inlineStr">
         <is>
@@ -3812,7 +3572,7 @@
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
@@ -3830,11 +3590,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -3847,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="2" t="inlineStr">
         <is>
@@ -3865,7 +3621,7 @@
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
@@ -3883,11 +3639,7 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F65" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -3900,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="2" t="inlineStr">
         <is>
@@ -3918,7 +3670,7 @@
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
@@ -3936,11 +3688,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F66" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -3953,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" s="2" t="inlineStr">
         <is>
@@ -3971,7 +3719,7 @@
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
@@ -3989,11 +3737,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F67" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -4006,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" s="2" t="inlineStr">
         <is>
@@ -4024,7 +3768,7 @@
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
@@ -4042,11 +3786,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F68" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F68" s="2" t="inlineStr"/>
       <c r="G68" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -4059,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" s="2" t="inlineStr">
         <is>
@@ -4077,7 +3817,7 @@
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
@@ -4095,11 +3835,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F69" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F69" s="2" t="inlineStr"/>
       <c r="G69" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -4112,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" s="2" t="inlineStr">
         <is>
@@ -4130,7 +3866,7 @@
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
@@ -4148,11 +3884,7 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F70" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -4165,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" s="2" t="inlineStr">
         <is>
@@ -4395,7 +4127,7 @@
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
@@ -4413,11 +4145,7 @@
           <t>February</t>
         </is>
       </c>
-      <c r="F75" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F75" s="2" t="inlineStr"/>
       <c r="G75" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -4430,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" s="2" t="inlineStr">
         <is>
@@ -4501,7 +4229,7 @@
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
@@ -4519,11 +4247,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F77" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F77" s="2" t="inlineStr"/>
       <c r="G77" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -4536,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" s="2" t="inlineStr">
         <is>
@@ -4554,7 +4278,7 @@
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
@@ -4572,11 +4296,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F78" s="2" t="inlineStr"/>
       <c r="G78" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -4589,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" s="2" t="inlineStr">
         <is>
@@ -4607,7 +4327,7 @@
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
@@ -4625,11 +4345,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F79" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F79" s="2" t="inlineStr"/>
       <c r="G79" s="2" t="inlineStr">
         <is>
           <t>502</t>
@@ -4642,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" s="2" t="inlineStr">
         <is>
